--- a/documentation/tests/test-algebra-page.xlsx
+++ b/documentation/tests/test-algebra-page.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="45">
   <si>
     <t xml:space="preserve">Test  ID</t>
   </si>
@@ -194,8 +194,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -374,7 +375,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -475,20 +476,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -497,10 +490,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -631,7 +620,7 @@
   <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I26" activeCellId="0" sqref="I26"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -764,13 +753,15 @@
         <v>20</v>
       </c>
       <c r="F6" s="16"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="26" t="str">
+      <c r="G6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="25" t="str">
         <f aca="false">IF(G6=E6,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J6" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J6" s="25"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
     </row>
@@ -783,13 +774,15 @@
         <v>21</v>
       </c>
       <c r="F7" s="16"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="26" t="str">
+      <c r="G7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="25" t="str">
         <f aca="false">IF(G7=E7,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J7" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J7" s="25"/>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
     </row>
@@ -802,13 +795,15 @@
         <v>22</v>
       </c>
       <c r="F8" s="16"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="26" t="str">
+      <c r="G8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="25" t="str">
         <f aca="false">IF(G8=E8,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J8" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J8" s="25"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
     </row>
@@ -821,13 +816,15 @@
         <v>23</v>
       </c>
       <c r="F9" s="16"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="26" t="str">
+      <c r="G9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="25" t="str">
         <f aca="false">IF(G9=E9,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J9" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J9" s="25"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
     </row>
@@ -840,55 +837,61 @@
         <v>24</v>
       </c>
       <c r="F10" s="16"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="26" t="str">
+      <c r="G10" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="25" t="str">
         <f aca="false">IF(G10=E10,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J10" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J10" s="25"/>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
     </row>
-    <row r="11" s="29" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" s="27" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="22"/>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
       <c r="D11" s="24"/>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="26" t="str">
+      <c r="F11" s="26"/>
+      <c r="G11" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="26"/>
+      <c r="I11" s="25" t="str">
         <f aca="false">IF(G11=E11,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-    </row>
-    <row r="12" s="29" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+    </row>
+    <row r="12" s="27" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="22"/>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
       <c r="D12" s="24"/>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="26" t="str">
+      <c r="F12" s="26"/>
+      <c r="G12" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="26"/>
+      <c r="I12" s="25" t="str">
         <f aca="false">IF(G12=E12,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J12" s="26"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-    </row>
-    <row r="13" s="29" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J12" s="25"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+    </row>
+    <row r="13" s="27" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="22" t="n">
         <v>2</v>
       </c>
@@ -896,24 +899,26 @@
         <v>27</v>
       </c>
       <c r="C13" s="23"/>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="28" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>29</v>
       </c>
       <c r="F13" s="23"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="26" t="str">
+      <c r="G13" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="23"/>
+      <c r="I13" s="25" t="str">
         <f aca="false">IF(G13=E13,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J13" s="26"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-    </row>
-    <row r="14" s="29" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J13" s="25"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+    </row>
+    <row r="14" s="27" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="22" t="n">
         <v>3</v>
       </c>
@@ -921,24 +926,26 @@
         <v>30</v>
       </c>
       <c r="C14" s="23"/>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="28" t="s">
         <v>31</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>29</v>
       </c>
       <c r="F14" s="23"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="26" t="str">
+      <c r="G14" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="23"/>
+      <c r="I14" s="25" t="str">
         <f aca="false">IF(G14=E14,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J14" s="26"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-    </row>
-    <row r="15" s="29" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J14" s="25"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+    </row>
+    <row r="15" s="27" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="22" t="n">
         <v>4</v>
       </c>
@@ -946,22 +953,24 @@
         <v>32</v>
       </c>
       <c r="C15" s="23"/>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="28" t="s">
         <v>33</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>29</v>
       </c>
       <c r="F15" s="23"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="26" t="str">
+      <c r="G15" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="23"/>
+      <c r="I15" s="25" t="str">
         <f aca="false">IF(G15=E15,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J15" s="26"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
+        <v>Pass</v>
+      </c>
+      <c r="J15" s="25"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
     </row>
     <row r="16" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="22" t="n">
@@ -971,22 +980,24 @@
         <v>34</v>
       </c>
       <c r="C16" s="23"/>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="28" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>36</v>
       </c>
       <c r="F16" s="23"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="26" t="str">
+      <c r="G16" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="23"/>
+      <c r="I16" s="25" t="str">
         <f aca="false">IF(G16=E16,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J16" s="26"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
+        <v>Pass</v>
+      </c>
+      <c r="J16" s="25"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
     </row>
     <row r="17" customFormat="false" ht="59.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="22" t="n">
@@ -996,22 +1007,24 @@
         <v>37</v>
       </c>
       <c r="C17" s="23"/>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>20</v>
       </c>
       <c r="F17" s="23"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="26" t="str">
+      <c r="G17" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="23"/>
+      <c r="I17" s="25" t="str">
         <f aca="false">IF(G17=E17,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J17" s="26"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
+        <v>Pass</v>
+      </c>
+      <c r="J17" s="25"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
     </row>
     <row r="18" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="22" t="n">
@@ -1021,22 +1034,24 @@
         <v>38</v>
       </c>
       <c r="C18" s="23"/>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="28" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>40</v>
       </c>
       <c r="F18" s="23"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="26" t="str">
+      <c r="G18" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="23"/>
+      <c r="I18" s="25" t="str">
         <f aca="false">IF(G18=E18,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J18" s="26"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
+        <v>Pass</v>
+      </c>
+      <c r="J18" s="25"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9"/>
@@ -1053,62 +1068,62 @@
       <c r="L19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="33"/>
+      <c r="A20" s="30"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="36" t="s">
+      <c r="B21" s="31"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="G21" s="37" t="s">
+      <c r="G21" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="38"/>
+      <c r="H21" s="35"/>
       <c r="I21" s="6"/>
       <c r="J21" s="7"/>
       <c r="L21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="35" t="s">
+      <c r="B22" s="31"/>
+      <c r="C22" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="36" t="s">
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="39" t="s">
+      <c r="G22" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="39"/>
+      <c r="H22" s="36"/>
       <c r="I22" s="11"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="36" t="s">
+      <c r="B23" s="31"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="41"/>
-      <c r="H23" s="42"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="39"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
@@ -1173,13 +1188,15 @@
         <v>20</v>
       </c>
       <c r="F26" s="16"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="26" t="str">
+      <c r="G26" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="16"/>
+      <c r="I26" s="25" t="str">
         <f aca="false">IF(G26=E26,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J26" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J26" s="25"/>
       <c r="K26" s="16"/>
       <c r="L26" s="16"/>
     </row>
@@ -1192,13 +1209,15 @@
         <v>21</v>
       </c>
       <c r="F27" s="16"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="26" t="str">
+      <c r="G27" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="16"/>
+      <c r="I27" s="25" t="str">
         <f aca="false">IF(G27=E27,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J27" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J27" s="25"/>
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
     </row>
@@ -1211,13 +1230,15 @@
         <v>22</v>
       </c>
       <c r="F28" s="16"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="26" t="str">
+      <c r="G28" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="16"/>
+      <c r="I28" s="25" t="str">
         <f aca="false">IF(G28=E28,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J28" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J28" s="25"/>
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
     </row>
@@ -1230,13 +1251,15 @@
         <v>23</v>
       </c>
       <c r="F29" s="16"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="26" t="str">
+      <c r="G29" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="16"/>
+      <c r="I29" s="25" t="str">
         <f aca="false">IF(G29=E29,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J29" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J29" s="25"/>
       <c r="K29" s="16"/>
       <c r="L29" s="16"/>
     </row>
@@ -1249,53 +1272,59 @@
         <v>24</v>
       </c>
       <c r="F30" s="16"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="26" t="str">
+      <c r="G30" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="16"/>
+      <c r="I30" s="25" t="str">
         <f aca="false">IF(G30=E30,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J30" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J30" s="25"/>
       <c r="K30" s="16"/>
       <c r="L30" s="16"/>
     </row>
-    <row r="31" s="29" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" s="27" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="22"/>
       <c r="B31" s="23"/>
       <c r="C31" s="23"/>
       <c r="D31" s="24"/>
-      <c r="E31" s="27" t="s">
+      <c r="E31" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="27"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="26" t="str">
+      <c r="F31" s="26"/>
+      <c r="G31" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="26"/>
+      <c r="I31" s="25" t="str">
         <f aca="false">IF(G31=E31,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J31" s="26"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-    </row>
-    <row r="32" s="29" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J31" s="25"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+    </row>
+    <row r="32" s="27" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="22"/>
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
       <c r="D32" s="24"/>
-      <c r="E32" s="27" t="s">
+      <c r="E32" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F32" s="27"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="26" t="str">
+      <c r="F32" s="26"/>
+      <c r="G32" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" s="26"/>
+      <c r="I32" s="25" t="str">
         <f aca="false">IF(G32=E32,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J32" s="26"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
+        <v>Pass</v>
+      </c>
+      <c r="J32" s="25"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
     </row>
     <row r="33" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="22" t="n">
@@ -1305,22 +1334,24 @@
         <v>27</v>
       </c>
       <c r="C33" s="23"/>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="28" t="s">
         <v>28</v>
       </c>
       <c r="E33" s="23" t="s">
         <v>29</v>
       </c>
       <c r="F33" s="23"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="26" t="str">
+      <c r="G33" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" s="23"/>
+      <c r="I33" s="25" t="str">
         <f aca="false">IF(G33=E33,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J33" s="26"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
+        <v>Pass</v>
+      </c>
+      <c r="J33" s="25"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
     </row>
     <row r="34" customFormat="false" ht="28.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="22" t="n">
@@ -1330,22 +1361,24 @@
         <v>30</v>
       </c>
       <c r="C34" s="23"/>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="28" t="s">
         <v>31</v>
       </c>
       <c r="E34" s="23" t="s">
         <v>29</v>
       </c>
       <c r="F34" s="23"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="26" t="str">
+      <c r="G34" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34" s="23"/>
+      <c r="I34" s="25" t="str">
         <f aca="false">IF(G34=E34,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J34" s="26"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
+        <v>Pass</v>
+      </c>
+      <c r="J34" s="25"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
     </row>
     <row r="35" customFormat="false" ht="28.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="22" t="n">
@@ -1355,22 +1388,24 @@
         <v>32</v>
       </c>
       <c r="C35" s="23"/>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="28" t="s">
         <v>33</v>
       </c>
       <c r="E35" s="23" t="s">
         <v>29</v>
       </c>
       <c r="F35" s="23"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="26" t="str">
+      <c r="G35" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" s="23"/>
+      <c r="I35" s="25" t="str">
         <f aca="false">IF(G35=E35,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J35" s="26"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
+        <v>Pass</v>
+      </c>
+      <c r="J35" s="25"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
     </row>
     <row r="36" customFormat="false" ht="41.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="22" t="n">
@@ -1380,22 +1415,24 @@
         <v>34</v>
       </c>
       <c r="C36" s="23"/>
-      <c r="D36" s="30" t="s">
+      <c r="D36" s="28" t="s">
         <v>35</v>
       </c>
       <c r="E36" s="23" t="s">
         <v>36</v>
       </c>
       <c r="F36" s="23"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="26" t="str">
+      <c r="G36" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" s="23"/>
+      <c r="I36" s="25" t="str">
         <f aca="false">IF(G36=E36,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J36" s="26"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
+        <v>Pass</v>
+      </c>
+      <c r="J36" s="25"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
     </row>
     <row r="37" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="22" t="n">
@@ -1405,22 +1442,24 @@
         <v>37</v>
       </c>
       <c r="C37" s="23"/>
-      <c r="D37" s="30" t="s">
+      <c r="D37" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E37" s="23" t="s">
         <v>20</v>
       </c>
       <c r="F37" s="23"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="26" t="str">
+      <c r="G37" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="23"/>
+      <c r="I37" s="25" t="str">
         <f aca="false">IF(G37=E37,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J37" s="26"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
+        <v>Pass</v>
+      </c>
+      <c r="J37" s="25"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
     </row>
     <row r="38" customFormat="false" ht="41.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="22" t="n">
@@ -1430,22 +1469,24 @@
         <v>38</v>
       </c>
       <c r="C38" s="23"/>
-      <c r="D38" s="30" t="s">
+      <c r="D38" s="28" t="s">
         <v>39</v>
       </c>
       <c r="E38" s="23" t="s">
         <v>40</v>
       </c>
       <c r="F38" s="23"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="26" t="str">
+      <c r="G38" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38" s="23"/>
+      <c r="I38" s="25" t="str">
         <f aca="false">IF(G38=E38,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J38" s="26"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
+        <v>Pass</v>
+      </c>
+      <c r="J38" s="25"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1619,8 +1660,8 @@
   </sheetPr>
   <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I26" activeCellId="0" sqref="I26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1726,10 +1767,10 @@
         <v>15</v>
       </c>
       <c r="H5" s="20"/>
-      <c r="I5" s="43" t="s">
+      <c r="I5" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="43"/>
+      <c r="J5" s="40"/>
       <c r="K5" s="18" t="s">
         <v>17</v>
       </c>
@@ -1750,13 +1791,15 @@
         <v>20</v>
       </c>
       <c r="F6" s="16"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="26" t="str">
+      <c r="G6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="25" t="str">
         <f aca="false">IF(G6=E6,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J6" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J6" s="25"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
     </row>
@@ -1769,13 +1812,15 @@
         <v>21</v>
       </c>
       <c r="F7" s="16"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="26" t="str">
+      <c r="G7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="25" t="str">
         <f aca="false">IF(G7=E7,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J7" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J7" s="25"/>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
     </row>
@@ -1788,13 +1833,15 @@
         <v>22</v>
       </c>
       <c r="F8" s="16"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="26" t="str">
+      <c r="G8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="25" t="str">
         <f aca="false">IF(G8=E8,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J8" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J8" s="25"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
     </row>
@@ -1807,13 +1854,15 @@
         <v>23</v>
       </c>
       <c r="F9" s="16"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="26" t="str">
+      <c r="G9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="25" t="str">
         <f aca="false">IF(G9=E9,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J9" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J9" s="25"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
     </row>
@@ -1826,13 +1875,15 @@
         <v>24</v>
       </c>
       <c r="F10" s="16"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="26" t="str">
+      <c r="G10" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="25" t="str">
         <f aca="false">IF(G10=E10,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J10" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J10" s="25"/>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
     </row>
@@ -1841,38 +1892,42 @@
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
       <c r="D11" s="24"/>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="26" t="str">
+      <c r="F11" s="26"/>
+      <c r="G11" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="26"/>
+      <c r="I11" s="25" t="str">
         <f aca="false">IF(G11=E11,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
+        <v>Pass</v>
+      </c>
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="22"/>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
       <c r="D12" s="24"/>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="26" t="str">
+      <c r="F12" s="26"/>
+      <c r="G12" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="26"/>
+      <c r="I12" s="25" t="str">
         <f aca="false">IF(G12=E12,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J12" s="26"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
+        <v>Pass</v>
+      </c>
+      <c r="J12" s="25"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
     </row>
     <row r="13" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="22" t="n">
@@ -1882,22 +1937,24 @@
         <v>27</v>
       </c>
       <c r="C13" s="23"/>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="28" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>29</v>
       </c>
       <c r="F13" s="23"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="26" t="str">
+      <c r="G13" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="23"/>
+      <c r="I13" s="25" t="str">
         <f aca="false">IF(G13=E13,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J13" s="26"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
+        <v>Pass</v>
+      </c>
+      <c r="J13" s="25"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
     </row>
     <row r="14" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="22" t="n">
@@ -1907,22 +1964,24 @@
         <v>30</v>
       </c>
       <c r="C14" s="23"/>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="28" t="s">
         <v>31</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>29</v>
       </c>
       <c r="F14" s="23"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="26" t="str">
+      <c r="G14" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="23"/>
+      <c r="I14" s="25" t="str">
         <f aca="false">IF(G14=E14,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J14" s="26"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
+        <v>Pass</v>
+      </c>
+      <c r="J14" s="25"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
     </row>
     <row r="15" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="22" t="n">
@@ -1932,22 +1991,24 @@
         <v>32</v>
       </c>
       <c r="C15" s="23"/>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="28" t="s">
         <v>33</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>29</v>
       </c>
       <c r="F15" s="23"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="26" t="str">
+      <c r="G15" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="23"/>
+      <c r="I15" s="25" t="str">
         <f aca="false">IF(G15=E15,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J15" s="26"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
+        <v>Pass</v>
+      </c>
+      <c r="J15" s="25"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
     </row>
     <row r="16" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="22" t="n">
@@ -1957,22 +2018,24 @@
         <v>34</v>
       </c>
       <c r="C16" s="23"/>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="28" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>36</v>
       </c>
       <c r="F16" s="23"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="26" t="str">
+      <c r="G16" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="23"/>
+      <c r="I16" s="25" t="str">
         <f aca="false">IF(G16=E16,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J16" s="26"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
+        <v>Pass</v>
+      </c>
+      <c r="J16" s="25"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
     </row>
     <row r="17" customFormat="false" ht="56.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="22" t="n">
@@ -1982,22 +2045,24 @@
         <v>37</v>
       </c>
       <c r="C17" s="23"/>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>20</v>
       </c>
       <c r="F17" s="23"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="26" t="str">
+      <c r="G17" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="23"/>
+      <c r="I17" s="25" t="str">
         <f aca="false">IF(G17=E17,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J17" s="26"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
+        <v>Pass</v>
+      </c>
+      <c r="J17" s="25"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
     </row>
     <row r="18" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="22" t="n">
@@ -2007,22 +2072,24 @@
         <v>38</v>
       </c>
       <c r="C18" s="23"/>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="28" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>40</v>
       </c>
       <c r="F18" s="23"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="26" t="str">
+      <c r="G18" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="23"/>
+      <c r="I18" s="25" t="str">
         <f aca="false">IF(G18=E18,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J18" s="26"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
+        <v>Pass</v>
+      </c>
+      <c r="J18" s="25"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="9"/>
@@ -2039,62 +2106,62 @@
       <c r="L19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="33"/>
+      <c r="A20" s="30"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="36" t="s">
+      <c r="B21" s="31"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="G21" s="37" t="s">
+      <c r="G21" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="38"/>
+      <c r="H21" s="35"/>
       <c r="I21" s="6"/>
       <c r="J21" s="7"/>
       <c r="L21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="35" t="s">
+      <c r="B22" s="31"/>
+      <c r="C22" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="36" t="s">
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="39" t="s">
+      <c r="G22" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="H22" s="39"/>
+      <c r="H22" s="36"/>
       <c r="I22" s="11"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="36" t="s">
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="41"/>
-      <c r="H23" s="42"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="39"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
@@ -2135,10 +2202,10 @@
         <v>15</v>
       </c>
       <c r="H25" s="20"/>
-      <c r="I25" s="43" t="s">
+      <c r="I25" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="J25" s="43"/>
+      <c r="J25" s="40"/>
       <c r="K25" s="18" t="s">
         <v>17</v>
       </c>
@@ -2159,13 +2226,15 @@
         <v>20</v>
       </c>
       <c r="F26" s="16"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="26" t="str">
+      <c r="G26" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="16"/>
+      <c r="I26" s="25" t="str">
         <f aca="false">IF(G26=E26,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J26" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J26" s="25"/>
       <c r="K26" s="16"/>
       <c r="L26" s="16"/>
     </row>
@@ -2178,13 +2247,15 @@
         <v>21</v>
       </c>
       <c r="F27" s="16"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="26" t="str">
+      <c r="G27" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="16"/>
+      <c r="I27" s="25" t="str">
         <f aca="false">IF(G27=E27,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J27" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J27" s="25"/>
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
     </row>
@@ -2197,13 +2268,15 @@
         <v>22</v>
       </c>
       <c r="F28" s="16"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="26" t="str">
+      <c r="G28" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="16"/>
+      <c r="I28" s="25" t="str">
         <f aca="false">IF(G28=E28,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J28" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J28" s="25"/>
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
     </row>
@@ -2216,13 +2289,15 @@
         <v>23</v>
       </c>
       <c r="F29" s="16"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="26" t="str">
+      <c r="G29" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="16"/>
+      <c r="I29" s="25" t="str">
         <f aca="false">IF(G29=E29,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J29" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J29" s="25"/>
       <c r="K29" s="16"/>
       <c r="L29" s="16"/>
     </row>
@@ -2235,13 +2310,15 @@
         <v>24</v>
       </c>
       <c r="F30" s="16"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="26" t="str">
+      <c r="G30" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="16"/>
+      <c r="I30" s="25" t="str">
         <f aca="false">IF(G30=E30,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J30" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J30" s="25"/>
       <c r="K30" s="16"/>
       <c r="L30" s="16"/>
     </row>
@@ -2250,38 +2327,42 @@
       <c r="B31" s="23"/>
       <c r="C31" s="23"/>
       <c r="D31" s="24"/>
-      <c r="E31" s="27" t="s">
+      <c r="E31" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="27"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="26" t="str">
+      <c r="F31" s="26"/>
+      <c r="G31" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="26"/>
+      <c r="I31" s="25" t="str">
         <f aca="false">IF(G31=E31,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J31" s="26"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
+        <v>Pass</v>
+      </c>
+      <c r="J31" s="25"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
     </row>
     <row r="32" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="22"/>
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
       <c r="D32" s="24"/>
-      <c r="E32" s="27" t="s">
+      <c r="E32" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F32" s="27"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="26" t="str">
+      <c r="F32" s="26"/>
+      <c r="G32" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" s="26"/>
+      <c r="I32" s="25" t="str">
         <f aca="false">IF(G32=E32,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J32" s="26"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
+        <v>Pass</v>
+      </c>
+      <c r="J32" s="25"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
     </row>
     <row r="33" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="22" t="n">
@@ -2291,22 +2372,24 @@
         <v>27</v>
       </c>
       <c r="C33" s="23"/>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="28" t="s">
         <v>28</v>
       </c>
       <c r="E33" s="23" t="s">
         <v>29</v>
       </c>
       <c r="F33" s="23"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="26" t="str">
+      <c r="G33" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" s="23"/>
+      <c r="I33" s="25" t="str">
         <f aca="false">IF(G33=E33,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J33" s="26"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
+        <v>Pass</v>
+      </c>
+      <c r="J33" s="25"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
     </row>
     <row r="34" customFormat="false" ht="28.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="22" t="n">
@@ -2316,22 +2399,24 @@
         <v>30</v>
       </c>
       <c r="C34" s="23"/>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="28" t="s">
         <v>31</v>
       </c>
       <c r="E34" s="23" t="s">
         <v>29</v>
       </c>
       <c r="F34" s="23"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="26" t="str">
+      <c r="G34" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34" s="23"/>
+      <c r="I34" s="25" t="str">
         <f aca="false">IF(G34=E34,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J34" s="26"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
+        <v>Pass</v>
+      </c>
+      <c r="J34" s="25"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
     </row>
     <row r="35" customFormat="false" ht="28.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="22" t="n">
@@ -2341,22 +2426,24 @@
         <v>32</v>
       </c>
       <c r="C35" s="23"/>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="28" t="s">
         <v>33</v>
       </c>
       <c r="E35" s="23" t="s">
         <v>29</v>
       </c>
       <c r="F35" s="23"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="26" t="str">
+      <c r="G35" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" s="23"/>
+      <c r="I35" s="25" t="str">
         <f aca="false">IF(G35=E35,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J35" s="26"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
+        <v>Pass</v>
+      </c>
+      <c r="J35" s="25"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
     </row>
     <row r="36" customFormat="false" ht="41.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="22" t="n">
@@ -2366,22 +2453,24 @@
         <v>34</v>
       </c>
       <c r="C36" s="23"/>
-      <c r="D36" s="30" t="s">
+      <c r="D36" s="28" t="s">
         <v>35</v>
       </c>
       <c r="E36" s="23" t="s">
         <v>36</v>
       </c>
       <c r="F36" s="23"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="26" t="str">
+      <c r="G36" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" s="23"/>
+      <c r="I36" s="25" t="str">
         <f aca="false">IF(G36=E36,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J36" s="26"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
+        <v>Pass</v>
+      </c>
+      <c r="J36" s="25"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
     </row>
     <row r="37" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="22" t="n">
@@ -2391,22 +2480,24 @@
         <v>37</v>
       </c>
       <c r="C37" s="23"/>
-      <c r="D37" s="30" t="s">
+      <c r="D37" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E37" s="23" t="s">
         <v>20</v>
       </c>
       <c r="F37" s="23"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="26" t="str">
+      <c r="G37" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="23"/>
+      <c r="I37" s="25" t="str">
         <f aca="false">IF(G37=E37,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J37" s="26"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
+        <v>Pass</v>
+      </c>
+      <c r="J37" s="25"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
     </row>
     <row r="38" customFormat="false" ht="41.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="22" t="n">
@@ -2416,22 +2507,24 @@
         <v>38</v>
       </c>
       <c r="C38" s="23"/>
-      <c r="D38" s="30" t="s">
+      <c r="D38" s="28" t="s">
         <v>39</v>
       </c>
       <c r="E38" s="23" t="s">
         <v>40</v>
       </c>
       <c r="F38" s="23"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="26" t="str">
+      <c r="G38" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38" s="23"/>
+      <c r="I38" s="25" t="str">
         <f aca="false">IF(G38=E38,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J38" s="26"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
+        <v>Pass</v>
+      </c>
+      <c r="J38" s="25"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2606,7 +2699,7 @@
   <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2713,10 +2806,10 @@
         <v>15</v>
       </c>
       <c r="H5" s="20"/>
-      <c r="I5" s="43" t="s">
+      <c r="I5" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="43"/>
+      <c r="J5" s="40"/>
       <c r="K5" s="18" t="s">
         <v>17</v>
       </c>
@@ -2737,13 +2830,15 @@
         <v>20</v>
       </c>
       <c r="F6" s="16"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="26" t="str">
+      <c r="G6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="25" t="str">
         <f aca="false">IF(G6=E6,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J6" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J6" s="25"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
     </row>
@@ -2756,13 +2851,15 @@
         <v>21</v>
       </c>
       <c r="F7" s="16"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="26" t="str">
+      <c r="G7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="25" t="str">
         <f aca="false">IF(G7=E7,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J7" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J7" s="25"/>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
     </row>
@@ -2775,13 +2872,15 @@
         <v>22</v>
       </c>
       <c r="F8" s="16"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="26" t="str">
+      <c r="G8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="25" t="str">
         <f aca="false">IF(G8=E8,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J8" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J8" s="25"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
     </row>
@@ -2794,13 +2893,15 @@
         <v>23</v>
       </c>
       <c r="F9" s="16"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="26" t="str">
+      <c r="G9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="25" t="str">
         <f aca="false">IF(G9=E9,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J9" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J9" s="25"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
     </row>
@@ -2813,13 +2914,15 @@
         <v>43</v>
       </c>
       <c r="F10" s="16"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="26" t="str">
+      <c r="G10" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="25" t="str">
         <f aca="false">IF(G10=E10,"Pass","FAIL")</f>
         <v>FAIL</v>
       </c>
-      <c r="J10" s="26"/>
+      <c r="J10" s="25"/>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
     </row>
@@ -2828,38 +2931,42 @@
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
       <c r="D11" s="24"/>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="26" t="str">
+      <c r="F11" s="26"/>
+      <c r="G11" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="26"/>
+      <c r="I11" s="25" t="str">
         <f aca="false">IF(G11=E11,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
+        <v>Pass</v>
+      </c>
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="22"/>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
       <c r="D12" s="24"/>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="26" t="str">
+      <c r="F12" s="26"/>
+      <c r="G12" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="26"/>
+      <c r="I12" s="25" t="str">
         <f aca="false">IF(G12=E12,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J12" s="26"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
+        <v>Pass</v>
+      </c>
+      <c r="J12" s="25"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
     </row>
     <row r="13" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="22" t="n">
@@ -2869,22 +2976,24 @@
         <v>27</v>
       </c>
       <c r="C13" s="23"/>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="28" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>29</v>
       </c>
       <c r="F13" s="23"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="26" t="str">
+      <c r="G13" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="23"/>
+      <c r="I13" s="25" t="str">
         <f aca="false">IF(G13=E13,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J13" s="26"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
+        <v>Pass</v>
+      </c>
+      <c r="J13" s="25"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
     </row>
     <row r="14" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="22" t="n">
@@ -2894,22 +3003,24 @@
         <v>30</v>
       </c>
       <c r="C14" s="23"/>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="28" t="s">
         <v>31</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>29</v>
       </c>
       <c r="F14" s="23"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="26" t="str">
+      <c r="G14" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="23"/>
+      <c r="I14" s="25" t="str">
         <f aca="false">IF(G14=E14,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J14" s="26"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
+        <v>Pass</v>
+      </c>
+      <c r="J14" s="25"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
     </row>
     <row r="15" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="22" t="n">
@@ -2919,22 +3030,24 @@
         <v>32</v>
       </c>
       <c r="C15" s="23"/>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="28" t="s">
         <v>33</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>29</v>
       </c>
       <c r="F15" s="23"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="26" t="str">
+      <c r="G15" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="23"/>
+      <c r="I15" s="25" t="str">
         <f aca="false">IF(G15=E15,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J15" s="26"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
+        <v>Pass</v>
+      </c>
+      <c r="J15" s="25"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
     </row>
     <row r="16" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="22" t="n">
@@ -2944,22 +3057,24 @@
         <v>34</v>
       </c>
       <c r="C16" s="23"/>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="28" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>36</v>
       </c>
       <c r="F16" s="23"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="26" t="str">
+      <c r="G16" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="23"/>
+      <c r="I16" s="25" t="str">
         <f aca="false">IF(G16=E16,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J16" s="26"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
+        <v>Pass</v>
+      </c>
+      <c r="J16" s="25"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
     </row>
     <row r="17" customFormat="false" ht="57.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="22" t="n">
@@ -2969,22 +3084,24 @@
         <v>37</v>
       </c>
       <c r="C17" s="23"/>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>20</v>
       </c>
       <c r="F17" s="23"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="26" t="str">
+      <c r="G17" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="23"/>
+      <c r="I17" s="25" t="str">
         <f aca="false">IF(G17=E17,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J17" s="26"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
+        <v>Pass</v>
+      </c>
+      <c r="J17" s="25"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
     </row>
     <row r="18" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="22" t="n">
@@ -2994,22 +3111,24 @@
         <v>38</v>
       </c>
       <c r="C18" s="23"/>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="28" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>40</v>
       </c>
       <c r="F18" s="23"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="26" t="str">
+      <c r="G18" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="23"/>
+      <c r="I18" s="25" t="str">
         <f aca="false">IF(G18=E18,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J18" s="26"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
+        <v>Pass</v>
+      </c>
+      <c r="J18" s="25"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="9"/>
@@ -3026,62 +3145,62 @@
       <c r="L19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="33"/>
+      <c r="A20" s="30"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="36" t="s">
+      <c r="B21" s="31"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="G21" s="37" t="s">
+      <c r="G21" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="38"/>
+      <c r="H21" s="35"/>
       <c r="I21" s="6"/>
       <c r="J21" s="7"/>
       <c r="L21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="35" t="s">
+      <c r="B22" s="31"/>
+      <c r="C22" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="36" t="s">
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="39" t="s">
+      <c r="G22" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="H22" s="39"/>
+      <c r="H22" s="36"/>
       <c r="I22" s="11"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="36" t="s">
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="41"/>
-      <c r="H23" s="42"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="39"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
@@ -3122,10 +3241,10 @@
         <v>15</v>
       </c>
       <c r="H25" s="20"/>
-      <c r="I25" s="43" t="s">
+      <c r="I25" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="J25" s="43"/>
+      <c r="J25" s="40"/>
       <c r="K25" s="18" t="s">
         <v>17</v>
       </c>
@@ -3146,13 +3265,15 @@
         <v>20</v>
       </c>
       <c r="F26" s="16"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="26" t="str">
+      <c r="G26" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="16"/>
+      <c r="I26" s="25" t="str">
         <f aca="false">IF(G26=E26,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J26" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J26" s="25"/>
       <c r="K26" s="16"/>
       <c r="L26" s="16"/>
     </row>
@@ -3165,13 +3286,15 @@
         <v>21</v>
       </c>
       <c r="F27" s="16"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="26" t="str">
+      <c r="G27" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="16"/>
+      <c r="I27" s="25" t="str">
         <f aca="false">IF(G27=E27,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J27" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J27" s="25"/>
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
     </row>
@@ -3184,13 +3307,15 @@
         <v>22</v>
       </c>
       <c r="F28" s="16"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="26" t="str">
+      <c r="G28" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="16"/>
+      <c r="I28" s="25" t="str">
         <f aca="false">IF(G28=E28,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J28" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J28" s="25"/>
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
     </row>
@@ -3203,13 +3328,15 @@
         <v>23</v>
       </c>
       <c r="F29" s="16"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="26" t="str">
+      <c r="G29" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="16"/>
+      <c r="I29" s="25" t="str">
         <f aca="false">IF(G29=E29,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J29" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J29" s="25"/>
       <c r="K29" s="16"/>
       <c r="L29" s="16"/>
     </row>
@@ -3222,13 +3349,15 @@
         <v>43</v>
       </c>
       <c r="F30" s="16"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="26" t="str">
+      <c r="G30" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="16"/>
+      <c r="I30" s="25" t="str">
         <f aca="false">IF(G30=E30,"Pass","FAIL")</f>
         <v>FAIL</v>
       </c>
-      <c r="J30" s="26"/>
+      <c r="J30" s="25"/>
       <c r="K30" s="16"/>
       <c r="L30" s="16"/>
     </row>
@@ -3237,38 +3366,42 @@
       <c r="B31" s="23"/>
       <c r="C31" s="23"/>
       <c r="D31" s="24"/>
-      <c r="E31" s="27" t="s">
+      <c r="E31" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="27"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="26" t="str">
+      <c r="F31" s="26"/>
+      <c r="G31" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="26"/>
+      <c r="I31" s="25" t="str">
         <f aca="false">IF(G31=E31,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J31" s="26"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
+        <v>Pass</v>
+      </c>
+      <c r="J31" s="25"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
     </row>
     <row r="32" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="22"/>
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
       <c r="D32" s="24"/>
-      <c r="E32" s="27" t="s">
+      <c r="E32" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F32" s="27"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="26" t="str">
+      <c r="F32" s="26"/>
+      <c r="G32" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" s="26"/>
+      <c r="I32" s="25" t="str">
         <f aca="false">IF(G32=E32,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J32" s="26"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
+        <v>Pass</v>
+      </c>
+      <c r="J32" s="25"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
     </row>
     <row r="33" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="22" t="n">
@@ -3278,22 +3411,24 @@
         <v>27</v>
       </c>
       <c r="C33" s="23"/>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="28" t="s">
         <v>28</v>
       </c>
       <c r="E33" s="23" t="s">
         <v>29</v>
       </c>
       <c r="F33" s="23"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="26" t="str">
+      <c r="G33" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" s="23"/>
+      <c r="I33" s="25" t="str">
         <f aca="false">IF(G33=E33,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J33" s="26"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
+        <v>Pass</v>
+      </c>
+      <c r="J33" s="25"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
     </row>
     <row r="34" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="22" t="n">
@@ -3303,22 +3438,24 @@
         <v>30</v>
       </c>
       <c r="C34" s="23"/>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="28" t="s">
         <v>31</v>
       </c>
       <c r="E34" s="23" t="s">
         <v>29</v>
       </c>
       <c r="F34" s="23"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="26" t="str">
+      <c r="G34" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34" s="23"/>
+      <c r="I34" s="25" t="str">
         <f aca="false">IF(G34=E34,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J34" s="26"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
+        <v>Pass</v>
+      </c>
+      <c r="J34" s="25"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
     </row>
     <row r="35" customFormat="false" ht="28.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="22" t="n">
@@ -3328,22 +3465,24 @@
         <v>32</v>
       </c>
       <c r="C35" s="23"/>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="28" t="s">
         <v>33</v>
       </c>
       <c r="E35" s="23" t="s">
         <v>29</v>
       </c>
       <c r="F35" s="23"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="26" t="str">
+      <c r="G35" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" s="23"/>
+      <c r="I35" s="25" t="str">
         <f aca="false">IF(G35=E35,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J35" s="26"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
+        <v>Pass</v>
+      </c>
+      <c r="J35" s="25"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
     </row>
     <row r="36" customFormat="false" ht="41.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="22" t="n">
@@ -3353,22 +3492,24 @@
         <v>34</v>
       </c>
       <c r="C36" s="23"/>
-      <c r="D36" s="30" t="s">
+      <c r="D36" s="28" t="s">
         <v>35</v>
       </c>
       <c r="E36" s="23" t="s">
         <v>36</v>
       </c>
       <c r="F36" s="23"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="26" t="str">
+      <c r="G36" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" s="23"/>
+      <c r="I36" s="25" t="str">
         <f aca="false">IF(G36=E36,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J36" s="26"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
+        <v>Pass</v>
+      </c>
+      <c r="J36" s="25"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
     </row>
     <row r="37" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="22" t="n">
@@ -3378,22 +3519,24 @@
         <v>37</v>
       </c>
       <c r="C37" s="23"/>
-      <c r="D37" s="30" t="s">
+      <c r="D37" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E37" s="23" t="s">
         <v>20</v>
       </c>
       <c r="F37" s="23"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="26" t="str">
+      <c r="G37" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="23"/>
+      <c r="I37" s="25" t="str">
         <f aca="false">IF(G37=E37,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J37" s="26"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
+        <v>Pass</v>
+      </c>
+      <c r="J37" s="25"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
     </row>
     <row r="38" customFormat="false" ht="41.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="22" t="n">
@@ -3403,22 +3546,24 @@
         <v>38</v>
       </c>
       <c r="C38" s="23"/>
-      <c r="D38" s="30" t="s">
+      <c r="D38" s="28" t="s">
         <v>39</v>
       </c>
       <c r="E38" s="23" t="s">
         <v>40</v>
       </c>
       <c r="F38" s="23"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="26" t="str">
+      <c r="G38" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38" s="23"/>
+      <c r="I38" s="25" t="str">
         <f aca="false">IF(G38=E38,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J38" s="26"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
+        <v>Pass</v>
+      </c>
+      <c r="J38" s="25"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3592,8 +3737,8 @@
   </sheetPr>
   <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3699,10 +3844,10 @@
         <v>15</v>
       </c>
       <c r="H5" s="20"/>
-      <c r="I5" s="43" t="s">
+      <c r="I5" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="43"/>
+      <c r="J5" s="40"/>
       <c r="K5" s="18" t="s">
         <v>17</v>
       </c>
@@ -3723,13 +3868,15 @@
         <v>20</v>
       </c>
       <c r="F6" s="16"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="26" t="str">
+      <c r="G6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="25" t="str">
         <f aca="false">IF(G6=E6,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J6" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J6" s="25"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
     </row>
@@ -3742,13 +3889,15 @@
         <v>21</v>
       </c>
       <c r="F7" s="16"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="26" t="str">
+      <c r="G7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="25" t="str">
         <f aca="false">IF(G7=E7,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J7" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J7" s="25"/>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
     </row>
@@ -3761,13 +3910,15 @@
         <v>22</v>
       </c>
       <c r="F8" s="16"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="26" t="str">
+      <c r="G8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="25" t="str">
         <f aca="false">IF(G8=E8,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J8" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J8" s="25"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
     </row>
@@ -3780,13 +3931,15 @@
         <v>23</v>
       </c>
       <c r="F9" s="16"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="26" t="str">
+      <c r="G9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="25" t="str">
         <f aca="false">IF(G9=E9,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J9" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J9" s="25"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
     </row>
@@ -3799,13 +3952,15 @@
         <v>43</v>
       </c>
       <c r="F10" s="16"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="26" t="str">
+      <c r="G10" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="25" t="str">
         <f aca="false">IF(G10=E10,"Pass","FAIL")</f>
         <v>FAIL</v>
       </c>
-      <c r="J10" s="26"/>
+      <c r="J10" s="25"/>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
     </row>
@@ -3814,38 +3969,42 @@
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
       <c r="D11" s="24"/>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="26" t="str">
+      <c r="F11" s="26"/>
+      <c r="G11" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="26"/>
+      <c r="I11" s="25" t="str">
         <f aca="false">IF(G11=E11,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
+        <v>Pass</v>
+      </c>
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="22"/>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
       <c r="D12" s="24"/>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="26" t="str">
+      <c r="F12" s="26"/>
+      <c r="G12" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="26"/>
+      <c r="I12" s="25" t="str">
         <f aca="false">IF(G12=E12,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J12" s="26"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
+        <v>Pass</v>
+      </c>
+      <c r="J12" s="25"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
     </row>
     <row r="13" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="22" t="n">
@@ -3855,22 +4014,24 @@
         <v>27</v>
       </c>
       <c r="C13" s="23"/>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="28" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>29</v>
       </c>
       <c r="F13" s="23"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="26" t="str">
+      <c r="G13" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="23"/>
+      <c r="I13" s="25" t="str">
         <f aca="false">IF(G13=E13,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J13" s="26"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
+        <v>Pass</v>
+      </c>
+      <c r="J13" s="25"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
     </row>
     <row r="14" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="22" t="n">
@@ -3880,22 +4041,24 @@
         <v>30</v>
       </c>
       <c r="C14" s="23"/>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="28" t="s">
         <v>31</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>29</v>
       </c>
       <c r="F14" s="23"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="26" t="str">
+      <c r="G14" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="23"/>
+      <c r="I14" s="25" t="str">
         <f aca="false">IF(G14=E14,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J14" s="26"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
+        <v>Pass</v>
+      </c>
+      <c r="J14" s="25"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
     </row>
     <row r="15" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="22" t="n">
@@ -3905,22 +4068,24 @@
         <v>32</v>
       </c>
       <c r="C15" s="23"/>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="28" t="s">
         <v>33</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>29</v>
       </c>
       <c r="F15" s="23"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="26" t="str">
+      <c r="G15" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="23"/>
+      <c r="I15" s="25" t="str">
         <f aca="false">IF(G15=E15,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J15" s="26"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
+        <v>Pass</v>
+      </c>
+      <c r="J15" s="25"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
     </row>
     <row r="16" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="22" t="n">
@@ -3930,22 +4095,24 @@
         <v>34</v>
       </c>
       <c r="C16" s="23"/>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="28" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>36</v>
       </c>
       <c r="F16" s="23"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="26" t="str">
+      <c r="G16" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="23"/>
+      <c r="I16" s="25" t="str">
         <f aca="false">IF(G16=E16,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J16" s="26"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
+        <v>Pass</v>
+      </c>
+      <c r="J16" s="25"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
     </row>
     <row r="17" customFormat="false" ht="61.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="22" t="n">
@@ -3955,22 +4122,24 @@
         <v>37</v>
       </c>
       <c r="C17" s="23"/>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>20</v>
       </c>
       <c r="F17" s="23"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="26" t="str">
+      <c r="G17" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="23"/>
+      <c r="I17" s="25" t="str">
         <f aca="false">IF(G17=E17,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J17" s="26"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
+        <v>Pass</v>
+      </c>
+      <c r="J17" s="25"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
     </row>
     <row r="18" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="22" t="n">
@@ -3980,22 +4149,24 @@
         <v>38</v>
       </c>
       <c r="C18" s="23"/>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="28" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>40</v>
       </c>
       <c r="F18" s="23"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="26" t="str">
+      <c r="G18" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="23"/>
+      <c r="I18" s="25" t="str">
         <f aca="false">IF(G18=E18,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J18" s="26"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
+        <v>Pass</v>
+      </c>
+      <c r="J18" s="25"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="9"/>
@@ -4012,62 +4183,62 @@
       <c r="L19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="33"/>
+      <c r="A20" s="30"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="36" t="s">
+      <c r="B21" s="31"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="G21" s="37" t="s">
+      <c r="G21" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="38"/>
+      <c r="H21" s="35"/>
       <c r="I21" s="6"/>
       <c r="J21" s="7"/>
       <c r="L21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="35" t="s">
+      <c r="B22" s="31"/>
+      <c r="C22" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="36" t="s">
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="39" t="s">
+      <c r="G22" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="H22" s="39"/>
+      <c r="H22" s="36"/>
       <c r="I22" s="11"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="36" t="s">
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="41"/>
-      <c r="H23" s="42"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="39"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
@@ -4108,10 +4279,10 @@
         <v>15</v>
       </c>
       <c r="H25" s="20"/>
-      <c r="I25" s="43" t="s">
+      <c r="I25" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="J25" s="43"/>
+      <c r="J25" s="40"/>
       <c r="K25" s="18" t="s">
         <v>17</v>
       </c>
@@ -4132,13 +4303,15 @@
         <v>20</v>
       </c>
       <c r="F26" s="16"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="26" t="str">
+      <c r="G26" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="16"/>
+      <c r="I26" s="25" t="str">
         <f aca="false">IF(G26=E26,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J26" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J26" s="25"/>
       <c r="K26" s="16"/>
       <c r="L26" s="16"/>
     </row>
@@ -4151,13 +4324,15 @@
         <v>21</v>
       </c>
       <c r="F27" s="16"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="26" t="str">
+      <c r="G27" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="16"/>
+      <c r="I27" s="25" t="str">
         <f aca="false">IF(G27=E27,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J27" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J27" s="25"/>
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
     </row>
@@ -4170,13 +4345,15 @@
         <v>22</v>
       </c>
       <c r="F28" s="16"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="26" t="str">
+      <c r="G28" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="16"/>
+      <c r="I28" s="25" t="str">
         <f aca="false">IF(G28=E28,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J28" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J28" s="25"/>
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
     </row>
@@ -4189,13 +4366,15 @@
         <v>23</v>
       </c>
       <c r="F29" s="16"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="26" t="str">
+      <c r="G29" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="16"/>
+      <c r="I29" s="25" t="str">
         <f aca="false">IF(G29=E29,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J29" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J29" s="25"/>
       <c r="K29" s="16"/>
       <c r="L29" s="16"/>
     </row>
@@ -4208,13 +4387,15 @@
         <v>43</v>
       </c>
       <c r="F30" s="16"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="26" t="str">
+      <c r="G30" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="16"/>
+      <c r="I30" s="25" t="str">
         <f aca="false">IF(G30=E30,"Pass","FAIL")</f>
         <v>FAIL</v>
       </c>
-      <c r="J30" s="26"/>
+      <c r="J30" s="25"/>
       <c r="K30" s="16"/>
       <c r="L30" s="16"/>
     </row>
@@ -4223,38 +4404,42 @@
       <c r="B31" s="23"/>
       <c r="C31" s="23"/>
       <c r="D31" s="24"/>
-      <c r="E31" s="27" t="s">
+      <c r="E31" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="27"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="26" t="str">
+      <c r="F31" s="26"/>
+      <c r="G31" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="26"/>
+      <c r="I31" s="25" t="str">
         <f aca="false">IF(G31=E31,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J31" s="26"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
+        <v>Pass</v>
+      </c>
+      <c r="J31" s="25"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
     </row>
     <row r="32" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="22"/>
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
       <c r="D32" s="24"/>
-      <c r="E32" s="27" t="s">
+      <c r="E32" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F32" s="27"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="26" t="str">
+      <c r="F32" s="26"/>
+      <c r="G32" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" s="26"/>
+      <c r="I32" s="25" t="str">
         <f aca="false">IF(G32=E32,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J32" s="26"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
+        <v>Pass</v>
+      </c>
+      <c r="J32" s="25"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
     </row>
     <row r="33" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="22" t="n">
@@ -4264,22 +4449,24 @@
         <v>27</v>
       </c>
       <c r="C33" s="23"/>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="28" t="s">
         <v>28</v>
       </c>
       <c r="E33" s="23" t="s">
         <v>29</v>
       </c>
       <c r="F33" s="23"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="26" t="str">
+      <c r="G33" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" s="23"/>
+      <c r="I33" s="25" t="str">
         <f aca="false">IF(G33=E33,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J33" s="26"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
+        <v>Pass</v>
+      </c>
+      <c r="J33" s="25"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
     </row>
     <row r="34" customFormat="false" ht="28.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="22" t="n">
@@ -4289,22 +4476,24 @@
         <v>30</v>
       </c>
       <c r="C34" s="23"/>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="28" t="s">
         <v>31</v>
       </c>
       <c r="E34" s="23" t="s">
         <v>29</v>
       </c>
       <c r="F34" s="23"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="26" t="str">
+      <c r="G34" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34" s="23"/>
+      <c r="I34" s="25" t="str">
         <f aca="false">IF(G34=E34,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J34" s="26"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
+        <v>Pass</v>
+      </c>
+      <c r="J34" s="25"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
     </row>
     <row r="35" customFormat="false" ht="28.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="22" t="n">
@@ -4314,22 +4503,24 @@
         <v>32</v>
       </c>
       <c r="C35" s="23"/>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="28" t="s">
         <v>33</v>
       </c>
       <c r="E35" s="23" t="s">
         <v>29</v>
       </c>
       <c r="F35" s="23"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="26" t="str">
+      <c r="G35" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" s="23"/>
+      <c r="I35" s="25" t="str">
         <f aca="false">IF(G35=E35,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J35" s="26"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
+        <v>Pass</v>
+      </c>
+      <c r="J35" s="25"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
     </row>
     <row r="36" customFormat="false" ht="41.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="22" t="n">
@@ -4339,22 +4530,24 @@
         <v>34</v>
       </c>
       <c r="C36" s="23"/>
-      <c r="D36" s="30" t="s">
+      <c r="D36" s="28" t="s">
         <v>35</v>
       </c>
       <c r="E36" s="23" t="s">
         <v>36</v>
       </c>
       <c r="F36" s="23"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="26" t="str">
+      <c r="G36" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" s="23"/>
+      <c r="I36" s="25" t="str">
         <f aca="false">IF(G36=E36,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J36" s="26"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
+        <v>Pass</v>
+      </c>
+      <c r="J36" s="25"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
     </row>
     <row r="37" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="22" t="n">
@@ -4364,22 +4557,24 @@
         <v>37</v>
       </c>
       <c r="C37" s="23"/>
-      <c r="D37" s="30" t="s">
+      <c r="D37" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E37" s="23" t="s">
         <v>20</v>
       </c>
       <c r="F37" s="23"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="26" t="str">
+      <c r="G37" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="23"/>
+      <c r="I37" s="25" t="str">
         <f aca="false">IF(G37=E37,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J37" s="26"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
+        <v>Pass</v>
+      </c>
+      <c r="J37" s="25"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
     </row>
     <row r="38" customFormat="false" ht="41.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="22" t="n">
@@ -4389,22 +4584,24 @@
         <v>38</v>
       </c>
       <c r="C38" s="23"/>
-      <c r="D38" s="30" t="s">
+      <c r="D38" s="28" t="s">
         <v>39</v>
       </c>
       <c r="E38" s="23" t="s">
         <v>40</v>
       </c>
       <c r="F38" s="23"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="26" t="str">
+      <c r="G38" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38" s="23"/>
+      <c r="I38" s="25" t="str">
         <f aca="false">IF(G38=E38,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J38" s="26"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
+        <v>Pass</v>
+      </c>
+      <c r="J38" s="25"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
